--- a/data/parameters_smspp.xlsx
+++ b/data/parameters_smspp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\smspp-project\PyPSA_SMS_interface\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\smspp-project\transformation_pypsa_smspp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IntermittentUnitBlock" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -252,133 +252,133 @@
     <t>Starting point of arc</t>
   </si>
   <si>
+    <t>EndArc</t>
+  </si>
+  <si>
+    <t>Ending point of arc</t>
+  </si>
+  <si>
+    <t>MaxVolumetric</t>
+  </si>
+  <si>
+    <t>Maximum volume of reservoir</t>
+  </si>
+  <si>
+    <t>MinVolumetric</t>
+  </si>
+  <si>
+    <t>Minimum volume of reservoir</t>
+  </si>
+  <si>
+    <t>Inflows</t>
+  </si>
+  <si>
+    <t>MaxFlow</t>
+  </si>
+  <si>
+    <t>Maximum volumetric flow rate</t>
+  </si>
+  <si>
+    <t>MinFlow</t>
+  </si>
+  <si>
+    <t>Minimum volumetric flow rate</t>
+  </si>
+  <si>
+    <t>Maximum power output</t>
+  </si>
+  <si>
+    <t>Minimum power output</t>
+  </si>
+  <si>
+    <t>NumberPieces</t>
+  </si>
+  <si>
+    <t>Number of pieces</t>
+  </si>
+  <si>
+    <t>ConstantTerm</t>
+  </si>
+  <si>
+    <t>Constant multiplier of FTAP function</t>
+  </si>
+  <si>
+    <t>[NP]</t>
+  </si>
+  <si>
+    <t>Linear multiplier of FTAP function</t>
+  </si>
+  <si>
+    <t>Ramp-down limit</t>
+  </si>
+  <si>
+    <t>DownhillFlow</t>
+  </si>
+  <si>
+    <t>Downhill flow rate</t>
+  </si>
+  <si>
+    <t>UphillFlow</t>
+  </si>
+  <si>
+    <t>Uphill flow rate</t>
+  </si>
+  <si>
+    <t>InitialFlowRate</t>
+  </si>
+  <si>
+    <t>Initial flow rate</t>
+  </si>
+  <si>
+    <t>InitialVolumetric</t>
+  </si>
+  <si>
+    <t>Initial volumetric</t>
+  </si>
+  <si>
+    <t>[N]</t>
+  </si>
+  <si>
+    <t>StartLine</t>
+  </si>
+  <si>
+    <t>EndLine</t>
+  </si>
+  <si>
+    <t>MinPowerFlow</t>
+  </si>
+  <si>
+    <t>MaxPowerFlow</t>
+  </si>
+  <si>
+    <t>LineSusceptance</t>
+  </si>
+  <si>
+    <t>[L] | [L][T]</t>
+  </si>
+  <si>
+    <t>[1][NR] | [T][NR]</t>
+  </si>
+  <si>
+    <t>[T][NR]</t>
+  </si>
+  <si>
+    <t>[NA]</t>
+  </si>
+  <si>
+    <t>[1][NA] | [T][NA]</t>
+  </si>
+  <si>
+    <t>[T][NA]</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>[L]</t>
-  </si>
-  <si>
-    <t>EndArc</t>
-  </si>
-  <si>
-    <t>Ending point of arc</t>
-  </si>
-  <si>
-    <t>MaxVolumetric</t>
-  </si>
-  <si>
-    <t>Maximum volume of reservoir</t>
-  </si>
-  <si>
-    <t>MinVolumetric</t>
-  </si>
-  <si>
-    <t>Minimum volume of reservoir</t>
-  </si>
-  <si>
-    <t>Inflows</t>
-  </si>
-  <si>
-    <t>MaxFlow</t>
-  </si>
-  <si>
-    <t>Maximum volumetric flow rate</t>
-  </si>
-  <si>
-    <t>MinFlow</t>
-  </si>
-  <si>
-    <t>Minimum volumetric flow rate</t>
-  </si>
-  <si>
-    <t>Maximum power output</t>
-  </si>
-  <si>
-    <t>Minimum power output</t>
-  </si>
-  <si>
-    <t>NumberPieces</t>
-  </si>
-  <si>
-    <t>Number of pieces</t>
-  </si>
-  <si>
-    <t>ConstantTerm</t>
-  </si>
-  <si>
-    <t>Constant multiplier of FTAP function</t>
-  </si>
-  <si>
-    <t>[NP]</t>
-  </si>
-  <si>
-    <t>Linear multiplier of FTAP function</t>
-  </si>
-  <si>
-    <t>Ramp-down limit</t>
-  </si>
-  <si>
-    <t>DownhillFlow</t>
-  </si>
-  <si>
-    <t>Downhill flow rate</t>
-  </si>
-  <si>
-    <t>UphillFlow</t>
-  </si>
-  <si>
-    <t>Uphill flow rate</t>
-  </si>
-  <si>
-    <t>InitialFlowRate</t>
-  </si>
-  <si>
-    <t>Initial flow rate</t>
-  </si>
-  <si>
-    <t>InitialVolumetric</t>
-  </si>
-  <si>
-    <t>Initial volumetric</t>
-  </si>
-  <si>
-    <t>[N]</t>
-  </si>
-  <si>
-    <t>StartLine</t>
-  </si>
-  <si>
-    <t>EndLine</t>
-  </si>
-  <si>
-    <t>MinPowerFlow</t>
-  </si>
-  <si>
-    <t>MaxPowerFlow</t>
-  </si>
-  <si>
-    <t>LineSusceptance</t>
-  </si>
-  <si>
-    <t>[L] | [L][T]</t>
-  </si>
-  <si>
-    <t>[1][NR] | [T][NR]</t>
-  </si>
-  <si>
-    <t>[T][NR]</t>
-  </si>
-  <si>
-    <t>[NA]</t>
-  </si>
-  <si>
-    <t>[1][NA] | [T][NA]</t>
-  </si>
-  <si>
-    <t>[T][NA]</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -809,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -829,9 +829,11 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
@@ -845,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -914,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -934,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -954,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -974,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -994,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -1014,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -1034,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1054,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1074,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -1094,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -1114,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -1125,7 +1127,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1134,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -1154,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -1174,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1194,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
@@ -1214,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
@@ -1233,7 +1235,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1297,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -1317,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1337,7 +1339,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1357,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -1377,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -1397,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -1417,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
@@ -1438,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1458,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -1478,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -1498,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -1518,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1541,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1564,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -1627,7 +1629,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1647,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1667,10 +1669,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1678,19 +1680,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1698,19 +1700,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1718,19 +1720,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1738,19 +1740,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1758,19 +1760,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1778,19 +1780,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1801,16 +1803,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1821,16 +1823,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1847,10 +1849,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1867,10 +1869,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1878,16 +1880,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1898,19 +1900,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1921,16 +1923,16 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1947,10 +1949,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1961,16 +1963,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1978,19 +1980,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1998,19 +2000,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -2027,10 +2029,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2038,19 +2040,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -2058,19 +2060,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
@@ -2085,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2117,19 +2119,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -2137,19 +2139,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -2157,19 +2159,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -2177,19 +2179,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -2197,19 +2199,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>

--- a/data/parameters_smspp.xlsx
+++ b/data/parameters_smspp.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Maximum power</t>
   </si>
   <si>
-    <t>1| [T]</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>DeltaRampUp</t>
   </si>
   <si>
-    <t>[T]</t>
-  </si>
-  <si>
     <t>Maximum power output battery</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t>LineSusceptance</t>
   </si>
   <si>
-    <t>[L] | [L][T]</t>
-  </si>
-  <si>
     <t>[1][NR] | [T][NR]</t>
   </si>
   <si>
@@ -379,6 +370,12 @@
   </si>
   <si>
     <t>[L]</t>
+  </si>
+  <si>
+    <t>1| [T][1]</t>
+  </si>
+  <si>
+    <t>[T][1]</t>
   </si>
 </sst>
 </file>
@@ -705,7 +702,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,8 +711,7 @@
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -749,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -769,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -789,50 +785,50 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -879,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -887,16 +883,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -907,16 +903,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -927,16 +923,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -947,19 +943,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -967,19 +963,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -987,22 +983,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1016,30 +1012,30 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -1047,19 +1043,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -1067,19 +1063,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -1087,19 +1083,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
@@ -1107,19 +1103,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1127,19 +1123,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1147,19 +1143,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
@@ -1167,16 +1163,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1187,19 +1183,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
@@ -1207,19 +1203,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
@@ -1235,7 +1231,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,8 +1240,7 @@
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1279,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1293,56 +1288,56 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1350,19 +1345,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1370,19 +1365,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1390,19 +1385,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1410,19 +1405,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1431,59 +1426,59 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1491,19 +1486,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1511,16 +1506,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1529,21 +1524,21 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1552,24 +1547,24 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1620,16 +1615,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1640,79 +1635,79 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1720,19 +1715,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1740,19 +1735,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1760,19 +1755,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1780,19 +1775,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1803,16 +1798,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1820,19 +1815,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1840,19 +1835,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1860,19 +1855,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1880,79 +1875,79 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1960,19 +1955,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1980,19 +1975,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -2000,19 +1995,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -2020,19 +2015,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2040,19 +2035,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -2060,22 +2055,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2083,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,102 +2114,102 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/parameters_smspp.xlsx
+++ b/data/parameters_smspp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IntermittentUnitBlock" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="BatteryUnitBlock" sheetId="3" r:id="rId3"/>
     <sheet name="HydroUnitBlock" sheetId="4" r:id="rId4"/>
     <sheet name="Lines" sheetId="5" r:id="rId5"/>
+    <sheet name="Links" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -328,9 +329,6 @@
   </si>
   <si>
     <t>Initial volumetric</t>
-  </si>
-  <si>
-    <t>[N]</t>
   </si>
   <si>
     <t>StartLine</t>
@@ -745,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -765,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -785,10 +783,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -805,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -825,10 +823,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -892,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -912,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -932,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -952,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -972,10 +970,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -992,10 +990,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -1012,10 +1010,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -1032,10 +1030,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -1052,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -1072,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -1092,10 +1090,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
@@ -1112,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1132,10 +1130,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1152,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
@@ -1172,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1192,10 +1190,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
@@ -1212,10 +1210,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
@@ -1274,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1294,10 +1292,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -1314,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1334,10 +1332,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1354,10 +1352,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1374,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1394,10 +1392,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1414,10 +1412,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1435,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1455,10 +1453,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -1475,10 +1473,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1495,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1515,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1538,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1561,10 +1559,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1579,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1587,7 @@
     <col min="2" max="2" width="33.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1624,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1644,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1664,10 +1662,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1684,10 +1682,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -1704,10 +1702,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1724,10 +1722,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1744,10 +1742,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1764,10 +1762,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1784,10 +1782,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1804,10 +1802,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1824,10 +1822,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1844,10 +1842,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1864,10 +1862,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1884,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1904,7 +1902,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>89</v>
@@ -1924,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>89</v>
@@ -1944,10 +1942,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1964,10 +1962,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1984,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -2004,10 +2002,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -2024,10 +2022,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2044,10 +2042,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -2064,10 +2062,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
@@ -2082,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2114,19 +2112,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -2134,19 +2132,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -2154,19 +2152,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -2174,19 +2172,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -2194,19 +2192,154 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>

--- a/data/parameters_smspp.xlsx
+++ b/data/parameters_smspp.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -346,34 +346,31 @@
     <t>LineSusceptance</t>
   </si>
   <si>
+    <t>[NA]</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>[L]</t>
+  </si>
+  <si>
+    <t>1| [T][1]</t>
+  </si>
+  <si>
+    <t>[T][1]</t>
+  </si>
+  <si>
+    <t>[NR][T]</t>
+  </si>
+  <si>
     <t>[1][NR] | [T][NR]</t>
   </si>
   <si>
-    <t>[T][NR]</t>
-  </si>
-  <si>
-    <t>[NA]</t>
-  </si>
-  <si>
-    <t>[1][NA] | [T][NA]</t>
-  </si>
-  <si>
-    <t>[T][NA]</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>[L]</t>
-  </si>
-  <si>
-    <t>1| [T][1]</t>
-  </si>
-  <si>
-    <t>[T][1]</t>
+    <t>[NA] | [T][NA]</t>
   </si>
 </sst>
 </file>
@@ -743,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -763,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -783,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -803,10 +800,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -823,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -890,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -910,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -930,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -950,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -970,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -990,10 +987,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -1010,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -1030,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -1050,10 +1047,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -1070,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -1090,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
@@ -1110,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1130,10 +1127,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1150,10 +1147,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
@@ -1170,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1190,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
@@ -1210,10 +1207,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
@@ -1272,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1292,10 +1289,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -1312,10 +1309,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1332,10 +1329,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1352,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1372,10 +1369,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1392,10 +1389,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1412,10 +1409,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1433,10 +1430,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1453,10 +1450,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -1473,10 +1470,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1493,10 +1490,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1513,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1536,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1559,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1577,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1642,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1662,10 +1659,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1682,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -1702,10 +1699,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1722,10 +1719,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1742,10 +1739,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1762,10 +1759,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1782,10 +1779,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1802,10 +1799,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1822,10 +1819,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1842,10 +1839,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1862,10 +1859,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1882,10 +1879,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -1902,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>89</v>
@@ -1922,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>89</v>
@@ -1942,10 +1939,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1962,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1982,10 +1979,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -2002,10 +1999,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -2022,10 +2019,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2042,10 +2039,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -2062,10 +2059,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
@@ -2121,10 +2118,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -2141,10 +2138,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -2161,10 +2158,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -2181,10 +2178,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -2201,10 +2198,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -2256,10 +2253,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -2276,10 +2273,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -2296,10 +2293,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -2316,10 +2313,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -2336,10 +2333,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>

--- a/data/parameters_smspp.xlsx
+++ b/data/parameters_smspp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IntermittentUnitBlock" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>[NA] | [T][NA]</t>
+  </si>
+  <si>
+    <t>[Li]</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2216,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2259,7 @@
         <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -2276,7 +2279,7 @@
         <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -2296,7 +2299,7 @@
         <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -2316,7 +2319,7 @@
         <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -2336,7 +2339,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>

--- a/data/parameters_smspp.xlsx
+++ b/data/parameters_smspp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824"/>
   </bookViews>
   <sheets>
     <sheet name="IntermittentUnitBlock" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>[Li]</t>
+  </si>
+  <si>
+    <t>ActivePowerCost</t>
   </si>
 </sst>
 </file>
@@ -697,15 +700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -829,6 +832,26 @@
         <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -842,7 +865,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
